--- a/Дифузионное сглаживание/bin/Debug/net5.0/output.xlsx
+++ b/Дифузионное сглаживание/bin/Debug/net5.0/output.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64,1692 +64,3477 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0">
+        <v>9</v>
+      </c>
+      <c r="F1" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0">
+        <v>19</v>
+      </c>
+      <c r="J1" s="0">
+        <v>11</v>
+      </c>
+      <c r="K1" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0">
+        <v>8</v>
+      </c>
+      <c r="M1" s="0">
+        <v>15</v>
+      </c>
+      <c r="N1" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" s="0">
+        <v>22</v>
+      </c>
+      <c r="P1" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="0">
+        <v>12</v>
+      </c>
+      <c r="R1" s="0">
+        <v>37</v>
+      </c>
+      <c r="S1" s="0">
         <v>22.3</v>
       </c>
-      <c r="B1" s="0">
+      <c r="T1" s="0">
         <v>28.7</v>
       </c>
-      <c r="C1" s="0">
+      <c r="U1" s="0">
         <v>17.6</v>
       </c>
-      <c r="D1" s="0">
+      <c r="V1" s="0">
         <v>9.05</v>
       </c>
-      <c r="E1" s="0">
+      <c r="W1" s="0">
         <v>5.87</v>
       </c>
-      <c r="F1" s="0">
+      <c r="X1" s="0">
         <v>11.9</v>
       </c>
-      <c r="G1" s="0">
+      <c r="Y1" s="0">
         <v>16.2</v>
       </c>
-      <c r="H1" s="0">
+      <c r="Z1" s="0">
         <v>10.6</v>
       </c>
-      <c r="I1" s="0">
+      <c r="AA1" s="0">
         <v>18.8</v>
       </c>
-      <c r="J1" s="0">
+      <c r="AB1" s="0">
         <v>8.45</v>
       </c>
-      <c r="K1" s="0">
+      <c r="AC1" s="0">
         <v>10.5</v>
       </c>
-      <c r="L1" s="0">
+      <c r="AD1" s="0">
         <v>11.4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
+        <v>25.39</v>
+      </c>
+      <c r="B2" s="0">
+        <v>19.1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>23.38</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
+        <v>9.750399999999999</v>
+      </c>
+      <c r="F2" s="0">
+        <v>17.01</v>
+      </c>
+      <c r="G2" s="0">
+        <v>4.1</v>
+      </c>
+      <c r="H2" s="0">
+        <v>6.7083</v>
+      </c>
+      <c r="I2" s="0">
+        <v>20.83</v>
+      </c>
+      <c r="J2" s="0">
+        <v>11.1</v>
+      </c>
+      <c r="K2" s="0">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0">
+        <v>8.3055</v>
+      </c>
+      <c r="M2" s="0">
+        <v>20</v>
+      </c>
+      <c r="N2" s="0">
+        <v>12</v>
+      </c>
+      <c r="O2" s="0">
+        <v>25.34</v>
+      </c>
+      <c r="P2" s="0">
+        <v>16.89</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>13</v>
+      </c>
+      <c r="R2" s="0">
+        <v>35.6</v>
+      </c>
+      <c r="S2" s="0">
         <v>26.26</v>
       </c>
-      <c r="B2" s="0">
+      <c r="T2" s="0">
         <v>30.16</v>
       </c>
-      <c r="C2" s="0">
+      <c r="U2" s="0">
         <v>21.828999999999997</v>
       </c>
-      <c r="D2" s="0">
+      <c r="V2" s="0">
         <v>9.883</v>
       </c>
-      <c r="E2" s="0">
+      <c r="W2" s="0">
         <v>5.982247</v>
       </c>
-      <c r="F2" s="0">
+      <c r="X2" s="0">
         <v>13.86919</v>
       </c>
-      <c r="G2" s="0">
+      <c r="Y2" s="0">
         <v>16.401999999999997</v>
       </c>
-      <c r="H2" s="0">
+      <c r="Z2" s="0">
         <v>10.61039</v>
       </c>
-      <c r="I2" s="0">
+      <c r="AA2" s="0">
         <v>19.349999999999998</v>
       </c>
-      <c r="J2" s="0">
+      <c r="AB2" s="0">
         <v>8.881029999999999</v>
       </c>
-      <c r="K2" s="0">
+      <c r="AC2" s="0">
         <v>10.544099999999998</v>
       </c>
-      <c r="L2" s="0">
+      <c r="AD2" s="0">
         <v>12.686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>29.57</v>
+      </c>
+      <c r="B3" s="0">
+        <v>22.6</v>
+      </c>
+      <c r="C3" s="0">
+        <v>28.38</v>
+      </c>
+      <c r="D3" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0">
+        <v>10.309099999999999</v>
+      </c>
+      <c r="F3" s="0">
+        <v>19.23</v>
+      </c>
+      <c r="G3" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3" s="0">
+        <v>7.0495</v>
+      </c>
+      <c r="I3" s="0">
+        <v>22.17</v>
+      </c>
+      <c r="J3" s="0">
+        <v>11.9</v>
+      </c>
+      <c r="K3" s="0">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0">
+        <v>9.139999999999999</v>
+      </c>
+      <c r="M3" s="0">
+        <v>23</v>
+      </c>
+      <c r="N3" s="0">
+        <v>13</v>
+      </c>
+      <c r="O3" s="0">
+        <v>29.69</v>
+      </c>
+      <c r="P3" s="0">
+        <v>22.89</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>17</v>
+      </c>
+      <c r="R3" s="0">
+        <v>39</v>
+      </c>
+      <c r="S3" s="0">
         <v>30.21</v>
       </c>
-      <c r="B3" s="0">
+      <c r="T3" s="0">
         <v>32.168</v>
       </c>
-      <c r="C3" s="0">
+      <c r="U3" s="0">
         <v>26.798</v>
       </c>
-      <c r="D3" s="0">
+      <c r="V3" s="0">
         <v>10.896</v>
       </c>
-      <c r="E3" s="0">
+      <c r="W3" s="0">
         <v>6.292897</v>
       </c>
-      <c r="F3" s="0">
+      <c r="X3" s="0">
         <v>16.1342</v>
       </c>
-      <c r="G3" s="0">
+      <c r="Y3" s="0">
         <v>16.642</v>
       </c>
-      <c r="H3" s="0">
+      <c r="Z3" s="0">
         <v>10.676969999999999</v>
       </c>
-      <c r="I3" s="0">
+      <c r="AA3" s="0">
         <v>19.61</v>
       </c>
-      <c r="J3" s="0">
+      <c r="AB3" s="0">
         <v>9.90902</v>
       </c>
-      <c r="K3" s="0">
+      <c r="AC3" s="0">
         <v>10.6639</v>
       </c>
-      <c r="L3" s="0">
+      <c r="AD3" s="0">
         <v>14.235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>36.22</v>
+      </c>
+      <c r="B4" s="0">
+        <v>31.5</v>
+      </c>
+      <c r="C4" s="0">
+        <v>35.11</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0">
+        <v>11.4423</v>
+      </c>
+      <c r="F4" s="0">
+        <v>22.92</v>
+      </c>
+      <c r="G4" s="0">
+        <v>6</v>
+      </c>
+      <c r="H4" s="0">
+        <v>7.6648000000000005</v>
+      </c>
+      <c r="I4" s="0">
+        <v>24.03</v>
+      </c>
+      <c r="J4" s="0">
+        <v>12.3</v>
+      </c>
+      <c r="K4" s="0">
+        <v>11</v>
+      </c>
+      <c r="L4" s="0">
+        <v>10.659999999999998</v>
+      </c>
+      <c r="M4" s="0">
+        <v>38</v>
+      </c>
+      <c r="N4" s="0">
+        <v>15</v>
+      </c>
+      <c r="O4" s="0">
+        <v>33.559999999999995</v>
+      </c>
+      <c r="P4" s="0">
+        <v>29.38</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>19</v>
+      </c>
+      <c r="R4" s="0">
+        <v>43.6</v>
+      </c>
+      <c r="S4" s="0">
         <v>37.06</v>
       </c>
-      <c r="B4" s="0">
+      <c r="T4" s="0">
         <v>34.101000000000006</v>
       </c>
-      <c r="C4" s="0">
+      <c r="U4" s="0">
         <v>33.468</v>
       </c>
-      <c r="D4" s="0">
+      <c r="V4" s="0">
         <v>11.92</v>
       </c>
-      <c r="E4" s="0">
+      <c r="W4" s="0">
         <v>6.762477</v>
       </c>
-      <c r="F4" s="0">
+      <c r="X4" s="0">
         <v>18.54054</v>
       </c>
-      <c r="G4" s="0">
+      <c r="Y4" s="0">
         <v>17.115</v>
       </c>
-      <c r="H4" s="0">
+      <c r="Z4" s="0">
         <v>10.90955</v>
       </c>
-      <c r="I4" s="0">
+      <c r="AA4" s="0">
         <v>20.82</v>
       </c>
-      <c r="J4" s="0">
+      <c r="AB4" s="0">
         <v>11.040669999999999</v>
       </c>
-      <c r="K4" s="0">
+      <c r="AC4" s="0">
         <v>10.7715</v>
       </c>
-      <c r="L4" s="0">
+      <c r="AD4" s="0">
         <v>15.629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>44.19</v>
+      </c>
+      <c r="B5" s="0">
+        <v>46.4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>43.629999999999995</v>
+      </c>
+      <c r="D5" s="0">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0">
+        <v>13.757499999999999</v>
+      </c>
+      <c r="F5" s="0">
+        <v>30.28</v>
+      </c>
+      <c r="G5" s="0">
+        <v>7.1</v>
+      </c>
+      <c r="H5" s="0">
+        <v>9.6795</v>
+      </c>
+      <c r="I5" s="0">
+        <v>26.38</v>
+      </c>
+      <c r="J5" s="0">
+        <v>15.1</v>
+      </c>
+      <c r="K5" s="0">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0">
+        <v>13.494599999999998</v>
+      </c>
+      <c r="M5" s="0">
+        <v>68</v>
+      </c>
+      <c r="N5" s="0">
+        <v>19</v>
+      </c>
+      <c r="O5" s="0">
+        <v>39.83</v>
+      </c>
+      <c r="P5" s="0">
+        <v>37.66</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>27</v>
+      </c>
+      <c r="R5" s="0">
+        <v>53.9</v>
+      </c>
+      <c r="S5" s="0">
         <v>47.86</v>
       </c>
-      <c r="B5" s="0">
+      <c r="T5" s="0">
         <v>35.57</v>
       </c>
-      <c r="C5" s="0">
+      <c r="U5" s="0">
         <v>41.349000000000004</v>
       </c>
-      <c r="D5" s="0">
+      <c r="V5" s="0">
         <v>13.17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="W5" s="0">
         <v>7.232773</v>
       </c>
-      <c r="F5" s="0">
+      <c r="X5" s="0">
         <v>20.475270000000002</v>
       </c>
-      <c r="G5" s="0">
+      <c r="Y5" s="0">
         <v>18.099</v>
       </c>
-      <c r="H5" s="0">
+      <c r="Z5" s="0">
         <v>11.30045</v>
       </c>
-      <c r="I5" s="0">
+      <c r="AA5" s="0">
         <v>23.21</v>
       </c>
-      <c r="J5" s="0">
+      <c r="AB5" s="0">
         <v>12.59338</v>
       </c>
-      <c r="K5" s="0">
+      <c r="AC5" s="0">
         <v>11.0346</v>
       </c>
-      <c r="L5" s="0">
+      <c r="AD5" s="0">
         <v>17.061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>53</v>
+      </c>
+      <c r="B6" s="0">
+        <v>74.3</v>
+      </c>
+      <c r="C6" s="0">
+        <v>58.29</v>
+      </c>
+      <c r="D6" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0">
+        <v>17.884</v>
+      </c>
+      <c r="F6" s="0">
+        <v>39.97</v>
+      </c>
+      <c r="G6" s="0">
+        <v>9.2</v>
+      </c>
+      <c r="H6" s="0">
+        <v>14.3806</v>
+      </c>
+      <c r="I6" s="0">
+        <v>30.369999999999997</v>
+      </c>
+      <c r="J6" s="0">
+        <v>19.3</v>
+      </c>
+      <c r="K6" s="0">
+        <v>20</v>
+      </c>
+      <c r="L6" s="0">
+        <v>17.8035</v>
+      </c>
+      <c r="M6" s="0">
+        <v>128</v>
+      </c>
+      <c r="N6" s="0">
+        <v>28</v>
+      </c>
+      <c r="O6" s="0">
+        <v>50.64</v>
+      </c>
+      <c r="P6" s="0">
+        <v>49.92</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>37</v>
+      </c>
+      <c r="R6" s="0">
+        <v>72.1</v>
+      </c>
+      <c r="S6" s="0">
         <v>60.05</v>
       </c>
-      <c r="B6" s="0">
+      <c r="T6" s="0">
         <v>36.518</v>
       </c>
-      <c r="C6" s="0">
+      <c r="U6" s="0">
         <v>49.554</v>
       </c>
-      <c r="D6" s="0">
+      <c r="V6" s="0">
         <v>15.129999999999999</v>
       </c>
-      <c r="E6" s="0">
+      <c r="W6" s="0">
         <v>7.694585</v>
       </c>
-      <c r="F6" s="0">
+      <c r="X6" s="0">
         <v>21.73286</v>
       </c>
-      <c r="G6" s="0">
+      <c r="Y6" s="0">
         <v>19.568</v>
       </c>
-      <c r="H6" s="0">
+      <c r="Z6" s="0">
         <v>11.70057</v>
       </c>
-      <c r="I6" s="0">
+      <c r="AA6" s="0">
         <v>26.770000000000003</v>
       </c>
-      <c r="J6" s="0">
+      <c r="AB6" s="0">
         <v>14.1096</v>
       </c>
-      <c r="K6" s="0">
+      <c r="AC6" s="0">
         <v>11.4229</v>
       </c>
-      <c r="L6" s="0">
+      <c r="AD6" s="0">
         <v>18.552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>61.87</v>
+      </c>
+      <c r="B7" s="0">
+        <v>115.7</v>
+      </c>
+      <c r="C7" s="0">
+        <v>75.48</v>
+      </c>
+      <c r="D7" s="0">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0">
+        <v>24.3549</v>
+      </c>
+      <c r="F7" s="0">
+        <v>54.2</v>
+      </c>
+      <c r="G7" s="0">
+        <v>13.3</v>
+      </c>
+      <c r="H7" s="0">
+        <v>25.9801</v>
+      </c>
+      <c r="I7" s="0">
+        <v>35.86</v>
+      </c>
+      <c r="J7" s="0">
+        <v>26.7</v>
+      </c>
+      <c r="K7" s="0">
+        <v>28</v>
+      </c>
+      <c r="L7" s="0">
+        <v>24.1545</v>
+      </c>
+      <c r="M7" s="0">
+        <v>243</v>
+      </c>
+      <c r="N7" s="0">
+        <v>46</v>
+      </c>
+      <c r="O7" s="0">
+        <v>70.22999999999999</v>
+      </c>
+      <c r="P7" s="0">
+        <v>70.91000000000001</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>54</v>
+      </c>
+      <c r="R7" s="0">
+        <v>93.8</v>
+      </c>
+      <c r="S7" s="0">
         <v>84.54</v>
       </c>
-      <c r="B7" s="0">
+      <c r="T7" s="0">
         <v>37.522999999999996</v>
       </c>
-      <c r="C7" s="0">
+      <c r="U7" s="0">
         <v>59.569</v>
       </c>
-      <c r="D7" s="0">
+      <c r="V7" s="0">
         <v>18.39</v>
       </c>
-      <c r="E7" s="0">
+      <c r="W7" s="0">
         <v>8.070321</v>
       </c>
-      <c r="F7" s="0">
+      <c r="X7" s="0">
         <v>22.5422</v>
       </c>
-      <c r="G7" s="0">
+      <c r="Y7" s="0">
         <v>21.481</v>
       </c>
-      <c r="H7" s="0">
+      <c r="Z7" s="0">
         <v>12.41157</v>
       </c>
-      <c r="I7" s="0">
+      <c r="AA7" s="0">
         <v>31.86</v>
       </c>
-      <c r="J7" s="0">
+      <c r="AB7" s="0">
         <v>15.840100000000001</v>
       </c>
-      <c r="K7" s="0">
+      <c r="AC7" s="0">
         <v>11.8697</v>
       </c>
-      <c r="L7" s="0">
+      <c r="AD7" s="0">
         <v>21.186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>71.12</v>
+      </c>
+      <c r="B8" s="0">
+        <v>173.1</v>
+      </c>
+      <c r="C8" s="0">
+        <v>95.94999999999999</v>
+      </c>
+      <c r="D8" s="0">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0">
+        <v>33.540200000000006</v>
+      </c>
+      <c r="F8" s="0">
+        <v>74.4</v>
+      </c>
+      <c r="G8" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="H8" s="0">
+        <v>50.0936</v>
+      </c>
+      <c r="I8" s="0">
+        <v>41.410000000000004</v>
+      </c>
+      <c r="J8" s="0">
+        <v>42.9</v>
+      </c>
+      <c r="K8" s="0">
+        <v>41</v>
+      </c>
+      <c r="L8" s="0">
+        <v>33.2904</v>
+      </c>
+      <c r="M8" s="0">
+        <v>471</v>
+      </c>
+      <c r="N8" s="0">
+        <v>80</v>
+      </c>
+      <c r="O8" s="0">
+        <v>106.39</v>
+      </c>
+      <c r="P8" s="0">
+        <v>102.74000000000001</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>73</v>
+      </c>
+      <c r="R8" s="0">
+        <v>133.9</v>
+      </c>
+      <c r="S8" s="0">
         <v>130.92</v>
       </c>
-      <c r="B8" s="0">
+      <c r="T8" s="0">
         <v>38.951</v>
       </c>
-      <c r="C8" s="0">
+      <c r="U8" s="0">
         <v>71.895</v>
       </c>
-      <c r="D8" s="0">
+      <c r="V8" s="0">
         <v>23.54</v>
       </c>
-      <c r="E8" s="0">
+      <c r="W8" s="0">
         <v>8.507548</v>
       </c>
-      <c r="F8" s="0">
+      <c r="X8" s="0">
         <v>23.05499</v>
       </c>
-      <c r="G8" s="0">
+      <c r="Y8" s="0">
         <v>24.335</v>
       </c>
-      <c r="H8" s="0">
+      <c r="Z8" s="0">
         <v>13.47072</v>
       </c>
-      <c r="I8" s="0">
+      <c r="AA8" s="0">
         <v>37.56</v>
       </c>
-      <c r="J8" s="0">
+      <c r="AB8" s="0">
         <v>17.8485</v>
       </c>
-      <c r="K8" s="0">
+      <c r="AC8" s="0">
         <v>12.358799999999999</v>
       </c>
-      <c r="L8" s="0">
+      <c r="AD8" s="0">
         <v>25.349999999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
+        <v>87.53999999999999</v>
+      </c>
+      <c r="B9" s="0">
+        <v>240.6</v>
+      </c>
+      <c r="C9" s="0">
+        <v>123.04</v>
+      </c>
+      <c r="D9" s="0">
+        <v>53</v>
+      </c>
+      <c r="E9" s="0">
+        <v>44.4169</v>
+      </c>
+      <c r="F9" s="0">
+        <v>101.63</v>
+      </c>
+      <c r="G9" s="0">
+        <v>32.3</v>
+      </c>
+      <c r="H9" s="0">
+        <v>86.8252</v>
+      </c>
+      <c r="I9" s="0">
+        <v>49.17</v>
+      </c>
+      <c r="J9" s="0">
+        <v>85.7</v>
+      </c>
+      <c r="K9" s="0">
+        <v>56</v>
+      </c>
+      <c r="L9" s="0">
+        <v>45.8377</v>
+      </c>
+      <c r="M9" s="0">
+        <v>842</v>
+      </c>
+      <c r="N9" s="0">
+        <v>132</v>
+      </c>
+      <c r="O9" s="0">
+        <v>169.45</v>
+      </c>
+      <c r="P9" s="0">
+        <v>153.09</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>105</v>
+      </c>
+      <c r="R9" s="0">
+        <v>213.9</v>
+      </c>
+      <c r="S9" s="0">
         <v>192.7</v>
       </c>
-      <c r="B9" s="0">
+      <c r="T9" s="0">
         <v>40.503</v>
       </c>
-      <c r="C9" s="0">
+      <c r="U9" s="0">
         <v>89.919</v>
       </c>
-      <c r="D9" s="0">
+      <c r="V9" s="0">
         <v>31.14</v>
       </c>
-      <c r="E9" s="0">
+      <c r="W9" s="0">
         <v>8.97563</v>
       </c>
-      <c r="F9" s="0">
+      <c r="X9" s="0">
         <v>23.13903</v>
       </c>
-      <c r="G9" s="0">
+      <c r="Y9" s="0">
         <v>29.075</v>
       </c>
-      <c r="H9" s="0">
+      <c r="Z9" s="0">
         <v>14.989719999999998</v>
       </c>
-      <c r="I9" s="0">
+      <c r="AA9" s="0">
         <v>43.29</v>
       </c>
-      <c r="J9" s="0">
+      <c r="AB9" s="0">
         <v>20.3288</v>
       </c>
-      <c r="K9" s="0">
+      <c r="AC9" s="0">
         <v>13.2811</v>
       </c>
-      <c r="L9" s="0">
+      <c r="AD9" s="0">
         <v>29.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
+        <v>125.03</v>
+      </c>
+      <c r="B10" s="0">
+        <v>306.4</v>
+      </c>
+      <c r="C10" s="0">
+        <v>145.89000000000001</v>
+      </c>
+      <c r="D10" s="0">
+        <v>85</v>
+      </c>
+      <c r="E10" s="0">
+        <v>56.4853</v>
+      </c>
+      <c r="F10" s="0">
+        <v>137.38</v>
+      </c>
+      <c r="G10" s="0">
+        <v>47.7</v>
+      </c>
+      <c r="H10" s="0">
+        <v>136.0567</v>
+      </c>
+      <c r="I10" s="0">
+        <v>62.370000000000005</v>
+      </c>
+      <c r="J10" s="0">
+        <v>159.3</v>
+      </c>
+      <c r="K10" s="0">
+        <v>74</v>
+      </c>
+      <c r="L10" s="0">
+        <v>62.4751</v>
+      </c>
+      <c r="M10" s="0">
+        <v>922</v>
+      </c>
+      <c r="N10" s="0">
+        <v>229</v>
+      </c>
+      <c r="O10" s="0">
+        <v>268.93</v>
+      </c>
+      <c r="P10" s="0">
+        <v>232.82999999999998</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>146</v>
+      </c>
+      <c r="R10" s="0">
+        <v>351.5</v>
+      </c>
+      <c r="S10" s="0">
         <v>236.3</v>
       </c>
-      <c r="B10" s="0">
+      <c r="T10" s="0">
         <v>43.417</v>
       </c>
-      <c r="C10" s="0">
+      <c r="U10" s="0">
         <v>109.226</v>
       </c>
-      <c r="D10" s="0">
+      <c r="V10" s="0">
         <v>41.92</v>
       </c>
-      <c r="E10" s="0">
+      <c r="W10" s="0">
         <v>9.753871</v>
       </c>
-      <c r="F10" s="0">
+      <c r="X10" s="0">
         <v>22.9542</v>
       </c>
-      <c r="G10" s="0">
+      <c r="Y10" s="0">
         <v>37.858</v>
       </c>
-      <c r="H10" s="0">
+      <c r="Z10" s="0">
         <v>17.147869999999998</v>
       </c>
-      <c r="I10" s="0">
+      <c r="AA10" s="0">
         <v>51.37</v>
       </c>
-      <c r="J10" s="0">
+      <c r="AB10" s="0">
         <v>22.694399999999998</v>
       </c>
-      <c r="K10" s="0">
+      <c r="AC10" s="0">
         <v>14.7864</v>
       </c>
-      <c r="L10" s="0">
+      <c r="AD10" s="0">
         <v>35.605000000000004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>181.24</v>
+      </c>
+      <c r="B11" s="0">
+        <v>378.3</v>
+      </c>
+      <c r="C11" s="0">
+        <v>156.85</v>
+      </c>
+      <c r="D11" s="0">
+        <v>133</v>
+      </c>
+      <c r="E11" s="0">
+        <v>69.94049999999999</v>
+      </c>
+      <c r="F11" s="0">
+        <v>185.15</v>
+      </c>
+      <c r="G11" s="0">
+        <v>69.1</v>
+      </c>
+      <c r="H11" s="0">
+        <v>199.2903</v>
+      </c>
+      <c r="I11" s="0">
+        <v>82.01</v>
+      </c>
+      <c r="J11" s="0">
+        <v>278.6</v>
+      </c>
+      <c r="K11" s="0">
+        <v>94</v>
+      </c>
+      <c r="L11" s="0">
+        <v>82.89139999999999</v>
+      </c>
+      <c r="M11" s="0">
+        <v>922</v>
+      </c>
+      <c r="N11" s="0">
+        <v>294</v>
+      </c>
+      <c r="O11" s="0">
+        <v>396.3</v>
+      </c>
+      <c r="P11" s="0">
+        <v>349.51</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>188</v>
+      </c>
+      <c r="R11" s="0">
+        <v>492.2</v>
+      </c>
+      <c r="S11" s="0">
         <v>265.7</v>
       </c>
-      <c r="B11" s="0">
+      <c r="T11" s="0">
         <v>48.829</v>
       </c>
-      <c r="C11" s="0">
+      <c r="U11" s="0">
         <v>125.87700000000001</v>
       </c>
-      <c r="D11" s="0">
+      <c r="V11" s="0">
         <v>55.61</v>
       </c>
-      <c r="E11" s="0">
+      <c r="W11" s="0">
         <v>10.795264000000001</v>
       </c>
-      <c r="F11" s="0">
+      <c r="X11" s="0">
         <v>22.63778</v>
       </c>
-      <c r="G11" s="0">
+      <c r="Y11" s="0">
         <v>53.443</v>
       </c>
-      <c r="H11" s="0">
+      <c r="Z11" s="0">
         <v>19.97091</v>
       </c>
-      <c r="I11" s="0">
+      <c r="AA11" s="0">
         <v>61.25</v>
       </c>
-      <c r="J11" s="0">
+      <c r="AB11" s="0">
         <v>25.495399999999997</v>
       </c>
-      <c r="K11" s="0">
+      <c r="AC11" s="0">
         <v>16.8102</v>
       </c>
-      <c r="L11" s="0">
+      <c r="AD11" s="0">
         <v>42.375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>208.54</v>
+      </c>
+      <c r="B12" s="0">
+        <v>475.3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>165.39</v>
+      </c>
+      <c r="D12" s="0">
+        <v>206</v>
+      </c>
+      <c r="E12" s="0">
+        <v>85.2607</v>
+      </c>
+      <c r="F12" s="0">
+        <v>251.49</v>
+      </c>
+      <c r="G12" s="0">
+        <v>92.9</v>
+      </c>
+      <c r="H12" s="0">
+        <v>262.1176</v>
+      </c>
+      <c r="I12" s="0">
+        <v>106.82000000000001</v>
+      </c>
+      <c r="J12" s="0">
+        <v>343.3</v>
+      </c>
+      <c r="K12" s="0">
+        <v>125</v>
+      </c>
+      <c r="L12" s="0">
+        <v>108.5205</v>
+      </c>
+      <c r="M12" s="0">
+        <v>865</v>
+      </c>
+      <c r="N12" s="0">
+        <v>376</v>
+      </c>
+      <c r="O12" s="0">
+        <v>482.8</v>
+      </c>
+      <c r="P12" s="0">
+        <v>410.60999999999996</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>290</v>
+      </c>
+      <c r="R12" s="0">
+        <v>684</v>
+      </c>
+      <c r="S12" s="0">
         <v>305.2</v>
       </c>
-      <c r="B12" s="0">
+      <c r="T12" s="0">
         <v>59.268</v>
       </c>
-      <c r="C12" s="0">
+      <c r="U12" s="0">
         <v>142.97</v>
       </c>
-      <c r="D12" s="0">
+      <c r="V12" s="0">
         <v>76.38</v>
       </c>
-      <c r="E12" s="0">
+      <c r="W12" s="0">
         <v>12.016186000000001</v>
       </c>
-      <c r="F12" s="0">
+      <c r="X12" s="0">
         <v>22.6994</v>
       </c>
-      <c r="G12" s="0">
+      <c r="Y12" s="0">
         <v>77.03999999999999</v>
       </c>
-      <c r="H12" s="0">
+      <c r="Z12" s="0">
         <v>23.71113</v>
       </c>
-      <c r="I12" s="0">
+      <c r="AA12" s="0">
         <v>79.27</v>
       </c>
-      <c r="J12" s="0">
+      <c r="AB12" s="0">
         <v>28.758399999999998</v>
       </c>
-      <c r="K12" s="0">
+      <c r="AC12" s="0">
         <v>19.0569</v>
       </c>
-      <c r="L12" s="0">
+      <c r="AD12" s="0">
         <v>51.282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
+        <v>221.23</v>
+      </c>
+      <c r="B13" s="0">
+        <v>559</v>
+      </c>
+      <c r="C13" s="0">
+        <v>175.58</v>
+      </c>
+      <c r="D13" s="0">
+        <v>326</v>
+      </c>
+      <c r="E13" s="0">
+        <v>102.8512</v>
+      </c>
+      <c r="F13" s="0">
+        <v>340.61</v>
+      </c>
+      <c r="G13" s="0">
+        <v>126.4</v>
+      </c>
+      <c r="H13" s="0">
+        <v>317.2036</v>
+      </c>
+      <c r="I13" s="0">
+        <v>136.14</v>
+      </c>
+      <c r="J13" s="0">
+        <v>390.4</v>
+      </c>
+      <c r="K13" s="0">
+        <v>167</v>
+      </c>
+      <c r="L13" s="0">
+        <v>144.4259</v>
+      </c>
+      <c r="M13" s="0">
+        <v>799</v>
+      </c>
+      <c r="N13" s="0">
+        <v>452</v>
+      </c>
+      <c r="O13" s="0">
+        <v>573.5600000000001</v>
+      </c>
+      <c r="P13" s="0">
+        <v>471.97999999999996</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>332</v>
+      </c>
+      <c r="R13" s="0">
+        <v>785.2</v>
+      </c>
+      <c r="S13" s="0">
         <v>330.9</v>
       </c>
-      <c r="B13" s="0">
+      <c r="T13" s="0">
         <v>74.673</v>
       </c>
-      <c r="C13" s="0">
+      <c r="U13" s="0">
         <v>169.3</v>
       </c>
-      <c r="D13" s="0">
+      <c r="V13" s="0">
         <v>102.6</v>
       </c>
-      <c r="E13" s="0">
+      <c r="W13" s="0">
         <v>13.851846</v>
       </c>
-      <c r="F13" s="0">
+      <c r="X13" s="0">
         <v>23.26336</v>
       </c>
-      <c r="G13" s="0">
+      <c r="Y13" s="0">
         <v>115.566</v>
       </c>
-      <c r="H13" s="0">
+      <c r="Z13" s="0">
         <v>29.29243</v>
       </c>
-      <c r="I13" s="0">
+      <c r="AA13" s="0">
         <v>106.38</v>
       </c>
-      <c r="J13" s="0">
+      <c r="AB13" s="0">
         <v>32.185900000000004</v>
       </c>
-      <c r="K13" s="0">
+      <c r="AC13" s="0">
         <v>21.737000000000002</v>
       </c>
-      <c r="L13" s="0">
+      <c r="AD13" s="0">
         <v>60.833999999999996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>232.65</v>
+      </c>
+      <c r="B14" s="0">
+        <v>612.9</v>
+      </c>
+      <c r="C14" s="0">
+        <v>188.39999999999998</v>
+      </c>
+      <c r="D14" s="0">
+        <v>364</v>
+      </c>
+      <c r="E14" s="0">
+        <v>125.43530000000001</v>
+      </c>
+      <c r="F14" s="0">
+        <v>383.97999999999996</v>
+      </c>
+      <c r="G14" s="0">
+        <v>177</v>
+      </c>
+      <c r="H14" s="0">
+        <v>356.2244999999999</v>
+      </c>
+      <c r="I14" s="0">
+        <v>173.17</v>
+      </c>
+      <c r="J14" s="0">
+        <v>459</v>
+      </c>
+      <c r="K14" s="0">
+        <v>230</v>
+      </c>
+      <c r="L14" s="0">
+        <v>184.6996</v>
+      </c>
+      <c r="M14" s="0">
+        <v>733</v>
+      </c>
+      <c r="N14" s="0">
+        <v>460</v>
+      </c>
+      <c r="O14" s="0">
+        <v>672.5</v>
+      </c>
+      <c r="P14" s="0">
+        <v>551.64</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>352</v>
+      </c>
+      <c r="R14" s="0">
+        <v>907.5</v>
+      </c>
+      <c r="S14" s="0">
         <v>345.1</v>
       </c>
-      <c r="B14" s="0">
+      <c r="T14" s="0">
         <v>95.731</v>
       </c>
-      <c r="C14" s="0">
+      <c r="U14" s="0">
         <v>208.63</v>
       </c>
-      <c r="D14" s="0">
+      <c r="V14" s="0">
         <v>142</v>
       </c>
-      <c r="E14" s="0">
+      <c r="W14" s="0">
         <v>17.018554</v>
       </c>
-      <c r="F14" s="0">
+      <c r="X14" s="0">
         <v>24.564819999999997</v>
       </c>
-      <c r="G14" s="0">
+      <c r="Y14" s="0">
         <v>180.506</v>
       </c>
-      <c r="H14" s="0">
+      <c r="Z14" s="0">
         <v>37.66741</v>
       </c>
-      <c r="I14" s="0">
+      <c r="AA14" s="0">
         <v>174.9</v>
       </c>
-      <c r="J14" s="0">
+      <c r="AB14" s="0">
         <v>37.3043</v>
       </c>
-      <c r="K14" s="0">
+      <c r="AC14" s="0">
         <v>24.967100000000002</v>
       </c>
-      <c r="L14" s="0">
+      <c r="AD14" s="0">
         <v>72.48100000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>242.77</v>
+      </c>
+      <c r="B15" s="0">
+        <v>625.4</v>
+      </c>
+      <c r="C15" s="0">
+        <v>203.22</v>
+      </c>
+      <c r="D15" s="0">
+        <v>387</v>
+      </c>
+      <c r="E15" s="0">
+        <v>151.1015</v>
+      </c>
+      <c r="F15" s="0">
+        <v>418.54999999999995</v>
+      </c>
+      <c r="G15" s="0">
+        <v>201.3</v>
+      </c>
+      <c r="H15" s="0">
+        <v>397.19769999999994</v>
+      </c>
+      <c r="I15" s="0">
+        <v>232.37</v>
+      </c>
+      <c r="J15" s="0">
+        <v>496.5</v>
+      </c>
+      <c r="K15" s="0">
+        <v>258</v>
+      </c>
+      <c r="L15" s="0">
+        <v>229.4862</v>
+      </c>
+      <c r="M15" s="0">
+        <v>639</v>
+      </c>
+      <c r="N15" s="0">
+        <v>456</v>
+      </c>
+      <c r="O15" s="0">
+        <v>703.71</v>
+      </c>
+      <c r="P15" s="0">
+        <v>625.03</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>366</v>
+      </c>
+      <c r="R15" s="0">
+        <v>968.5</v>
+      </c>
+      <c r="S15" s="0">
         <v>350.2</v>
       </c>
-      <c r="B15" s="0">
+      <c r="T15" s="0">
         <v>125.553</v>
       </c>
-      <c r="C15" s="0">
+      <c r="U15" s="0">
         <v>251.03</v>
       </c>
-      <c r="D15" s="0">
+      <c r="V15" s="0">
         <v>185</v>
       </c>
-      <c r="E15" s="0">
+      <c r="W15" s="0">
         <v>21.99642</v>
       </c>
-      <c r="F15" s="0">
+      <c r="X15" s="0">
         <v>27.967859999999998</v>
       </c>
-      <c r="G15" s="0">
+      <c r="Y15" s="0">
         <v>236.24</v>
       </c>
-      <c r="H15" s="0">
+      <c r="Z15" s="0">
         <v>48.78199</v>
       </c>
-      <c r="I15" s="0">
+      <c r="AA15" s="0">
         <v>287.1</v>
       </c>
-      <c r="J15" s="0">
+      <c r="AB15" s="0">
         <v>44.7126</v>
       </c>
-      <c r="K15" s="0">
+      <c r="AC15" s="0">
         <v>29.174400000000002</v>
       </c>
-      <c r="L15" s="0">
+      <c r="AD15" s="0">
         <v>87.298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
+        <v>251.48999999999998</v>
+      </c>
+      <c r="B16" s="0">
+        <v>590.4</v>
+      </c>
+      <c r="C16" s="0">
+        <v>219.35999999999999</v>
+      </c>
+      <c r="D16" s="0">
+        <v>405</v>
+      </c>
+      <c r="E16" s="0">
+        <v>177.0969</v>
+      </c>
+      <c r="F16" s="0">
+        <v>457.08</v>
+      </c>
+      <c r="G16" s="0">
+        <v>191.2</v>
+      </c>
+      <c r="H16" s="0">
+        <v>446.6261</v>
+      </c>
+      <c r="I16" s="0">
+        <v>325.59000000000003</v>
+      </c>
+      <c r="J16" s="0">
+        <v>494.5</v>
+      </c>
+      <c r="K16" s="0">
+        <v>281</v>
+      </c>
+      <c r="L16" s="0">
+        <v>283.05219999999997</v>
+      </c>
+      <c r="M16" s="0">
+        <v>536</v>
+      </c>
+      <c r="N16" s="0">
+        <v>431</v>
+      </c>
+      <c r="O16" s="0">
+        <v>711.8</v>
+      </c>
+      <c r="P16" s="0">
+        <v>669.14</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>367</v>
+      </c>
+      <c r="R16" s="0">
+        <v>964.5</v>
+      </c>
+      <c r="S16" s="0">
         <v>347.8</v>
       </c>
-      <c r="B16" s="0">
+      <c r="T16" s="0">
         <v>160.776</v>
       </c>
-      <c r="C16" s="0">
+      <c r="U16" s="0">
         <v>304.36</v>
       </c>
-      <c r="D16" s="0">
+      <c r="V16" s="0">
         <v>242.9</v>
       </c>
-      <c r="E16" s="0">
+      <c r="W16" s="0">
         <v>28.612799999999996</v>
       </c>
-      <c r="F16" s="0">
+      <c r="X16" s="0">
         <v>35.873509999999996</v>
       </c>
-      <c r="G16" s="0">
+      <c r="Y16" s="0">
         <v>279.33</v>
       </c>
-      <c r="H16" s="0">
+      <c r="Z16" s="0">
         <v>62.7857</v>
       </c>
-      <c r="I16" s="0">
+      <c r="AA16" s="0">
         <v>353.2</v>
       </c>
-      <c r="J16" s="0">
+      <c r="AB16" s="0">
         <v>53.619</v>
       </c>
-      <c r="K16" s="0">
+      <c r="AC16" s="0">
         <v>34.7473</v>
       </c>
-      <c r="L16" s="0">
+      <c r="AD16" s="0">
         <v>102.989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>258.75</v>
+      </c>
+      <c r="B17" s="0">
+        <v>559.8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>236.87</v>
+      </c>
+      <c r="D17" s="0">
+        <v>423</v>
+      </c>
+      <c r="E17" s="0">
+        <v>207.9938</v>
+      </c>
+      <c r="F17" s="0">
+        <v>489.15</v>
+      </c>
+      <c r="G17" s="0">
+        <v>222.2</v>
+      </c>
+      <c r="H17" s="0">
+        <v>488.2551</v>
+      </c>
+      <c r="I17" s="0">
+        <v>406.72999999999996</v>
+      </c>
+      <c r="J17" s="0">
+        <v>377.6</v>
+      </c>
+      <c r="K17" s="0">
+        <v>291</v>
+      </c>
+      <c r="L17" s="0">
+        <v>335.269</v>
+      </c>
+      <c r="M17" s="0">
+        <v>445</v>
+      </c>
+      <c r="N17" s="0">
+        <v>395</v>
+      </c>
+      <c r="O17" s="0">
+        <v>707.68</v>
+      </c>
+      <c r="P17" s="0">
+        <v>687.52</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>349</v>
+      </c>
+      <c r="R17" s="0">
+        <v>906</v>
+      </c>
+      <c r="S17" s="0">
         <v>342.9</v>
       </c>
-      <c r="B17" s="0">
+      <c r="T17" s="0">
         <v>207.32999999999998</v>
       </c>
-      <c r="C17" s="0">
+      <c r="U17" s="0">
         <v>361</v>
       </c>
-      <c r="D17" s="0">
+      <c r="V17" s="0">
         <v>290</v>
       </c>
-      <c r="E17" s="0">
+      <c r="W17" s="0">
         <v>37.18873</v>
       </c>
-      <c r="F17" s="0">
+      <c r="X17" s="0">
         <v>49.48439</v>
       </c>
-      <c r="G17" s="0">
+      <c r="Y17" s="0">
         <v>318.11</v>
       </c>
-      <c r="H17" s="0">
+      <c r="Z17" s="0">
         <v>81.36464000000001</v>
       </c>
-      <c r="I17" s="0">
+      <c r="AA17" s="0">
         <v>494.3</v>
       </c>
-      <c r="J17" s="0">
+      <c r="AB17" s="0">
         <v>66.7091</v>
       </c>
-      <c r="K17" s="0">
+      <c r="AC17" s="0">
         <v>40.5698</v>
       </c>
-      <c r="L17" s="0">
+      <c r="AD17" s="0">
         <v>117.982</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
+        <v>269.19</v>
+      </c>
+      <c r="B18" s="0">
+        <v>521.3</v>
+      </c>
+      <c r="C18" s="0">
+        <v>254.55</v>
+      </c>
+      <c r="D18" s="0">
+        <v>439</v>
+      </c>
+      <c r="E18" s="0">
+        <v>249.1962</v>
+      </c>
+      <c r="F18" s="0">
+        <v>514.29</v>
+      </c>
+      <c r="G18" s="0">
+        <v>229.2</v>
+      </c>
+      <c r="H18" s="0">
+        <v>502.0697</v>
+      </c>
+      <c r="I18" s="0">
+        <v>453.27</v>
+      </c>
+      <c r="J18" s="0">
+        <v>337.2</v>
+      </c>
+      <c r="K18" s="0">
+        <v>294</v>
+      </c>
+      <c r="L18" s="0">
+        <v>382.91209999999995</v>
+      </c>
+      <c r="M18" s="0">
+        <v>372</v>
+      </c>
+      <c r="N18" s="0">
+        <v>357</v>
+      </c>
+      <c r="O18" s="0">
+        <v>685.87</v>
+      </c>
+      <c r="P18" s="0">
+        <v>672.26</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>323</v>
+      </c>
+      <c r="R18" s="0">
+        <v>808.3</v>
+      </c>
+      <c r="S18" s="0">
         <v>337.5</v>
       </c>
-      <c r="B18" s="0">
+      <c r="T18" s="0">
         <v>261.19</v>
       </c>
-      <c r="C18" s="0">
+      <c r="U18" s="0">
         <v>415.32000000000005</v>
       </c>
-      <c r="D18" s="0">
+      <c r="V18" s="0">
         <v>303.8</v>
       </c>
-      <c r="E18" s="0">
+      <c r="W18" s="0">
         <v>50.31712</v>
       </c>
-      <c r="F18" s="0">
+      <c r="X18" s="0">
         <v>68.97051</v>
       </c>
-      <c r="G18" s="0">
+      <c r="Y18" s="0">
         <v>356.20000000000005</v>
       </c>
-      <c r="H18" s="0">
+      <c r="Z18" s="0">
         <v>107.35038000000002</v>
       </c>
-      <c r="I18" s="0">
+      <c r="AA18" s="0">
         <v>589</v>
       </c>
-      <c r="J18" s="0">
+      <c r="AB18" s="0">
         <v>79.8968</v>
       </c>
-      <c r="K18" s="0">
+      <c r="AC18" s="0">
         <v>46.446600000000004</v>
       </c>
-      <c r="L18" s="0">
+      <c r="AD18" s="0">
         <v>127.80000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
+        <v>285.34</v>
+      </c>
+      <c r="B19" s="0">
+        <v>484.5</v>
+      </c>
+      <c r="C19" s="0">
+        <v>274.39</v>
+      </c>
+      <c r="D19" s="0">
+        <v>446</v>
+      </c>
+      <c r="E19" s="0">
+        <v>287.63370000000003</v>
+      </c>
+      <c r="F19" s="0">
+        <v>523.82</v>
+      </c>
+      <c r="G19" s="0">
+        <v>229.3</v>
+      </c>
+      <c r="H19" s="0">
+        <v>487.158</v>
+      </c>
+      <c r="I19" s="0">
+        <v>497.58</v>
+      </c>
+      <c r="J19" s="0">
+        <v>302.7</v>
+      </c>
+      <c r="K19" s="0">
+        <v>286</v>
+      </c>
+      <c r="L19" s="0">
+        <v>430.2578</v>
+      </c>
+      <c r="M19" s="0">
+        <v>332</v>
+      </c>
+      <c r="N19" s="0">
+        <v>315</v>
+      </c>
+      <c r="O19" s="0">
+        <v>639.26</v>
+      </c>
+      <c r="P19" s="0">
+        <v>586.85</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>286</v>
+      </c>
+      <c r="R19" s="0">
+        <v>691.4</v>
+      </c>
+      <c r="S19" s="0">
         <v>336.6</v>
       </c>
-      <c r="B19" s="0">
+      <c r="T19" s="0">
         <v>312.37</v>
       </c>
-      <c r="C19" s="0">
+      <c r="U19" s="0">
         <v>452.78000000000003</v>
       </c>
-      <c r="D19" s="0">
+      <c r="V19" s="0">
         <v>311.5</v>
       </c>
-      <c r="E19" s="0">
+      <c r="W19" s="0">
         <v>67.25596999999999</v>
       </c>
-      <c r="F19" s="0">
+      <c r="X19" s="0">
         <v>97.30616</v>
       </c>
-      <c r="G19" s="0">
+      <c r="Y19" s="0">
         <v>390.20000000000005</v>
       </c>
-      <c r="H19" s="0">
+      <c r="Z19" s="0">
         <v>140.84222</v>
       </c>
-      <c r="I19" s="0">
+      <c r="AA19" s="0">
         <v>643.8</v>
       </c>
-      <c r="J19" s="0">
+      <c r="AB19" s="0">
         <v>94.5921</v>
       </c>
-      <c r="K19" s="0">
+      <c r="AC19" s="0">
         <v>52.085</v>
       </c>
-      <c r="L19" s="0">
+      <c r="AD19" s="0">
         <v>129.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>307.41999999999996</v>
+      </c>
+      <c r="B20" s="0">
+        <v>451.9</v>
+      </c>
+      <c r="C20" s="0">
+        <v>296.07</v>
+      </c>
+      <c r="D20" s="0">
+        <v>415</v>
+      </c>
+      <c r="E20" s="0">
+        <v>322.2076</v>
+      </c>
+      <c r="F20" s="0">
+        <v>516.58</v>
+      </c>
+      <c r="G20" s="0">
+        <v>194.8</v>
+      </c>
+      <c r="H20" s="0">
+        <v>442.26160000000004</v>
+      </c>
+      <c r="I20" s="0">
+        <v>539.02</v>
+      </c>
+      <c r="J20" s="0">
+        <v>274</v>
+      </c>
+      <c r="K20" s="0">
+        <v>272</v>
+      </c>
+      <c r="L20" s="0">
+        <v>461.85970000000003</v>
+      </c>
+      <c r="M20" s="0">
+        <v>303</v>
+      </c>
+      <c r="N20" s="0">
+        <v>278</v>
+      </c>
+      <c r="O20" s="0">
+        <v>587.3199999999999</v>
+      </c>
+      <c r="P20" s="0">
+        <v>526.1600000000001</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>272</v>
+      </c>
+      <c r="R20" s="0">
+        <v>561.5</v>
+      </c>
+      <c r="S20" s="0">
         <v>340.5</v>
       </c>
-      <c r="B20" s="0">
+      <c r="T20" s="0">
         <v>326.51</v>
       </c>
-      <c r="C20" s="0">
+      <c r="U20" s="0">
         <v>466.44</v>
       </c>
-      <c r="D20" s="0">
+      <c r="V20" s="0">
         <v>314.7</v>
       </c>
-      <c r="E20" s="0">
+      <c r="W20" s="0">
         <v>89.39344</v>
       </c>
-      <c r="F20" s="0">
+      <c r="X20" s="0">
         <v>134.63677</v>
       </c>
-      <c r="G20" s="0">
+      <c r="Y20" s="0">
         <v>415.27000000000004</v>
       </c>
-      <c r="H20" s="0">
+      <c r="Z20" s="0">
         <v>178.72472</v>
       </c>
-      <c r="I20" s="0">
+      <c r="AA20" s="0">
         <v>683.3</v>
       </c>
-      <c r="J20" s="0">
+      <c r="AB20" s="0">
         <v>110.8922</v>
       </c>
-      <c r="K20" s="0">
+      <c r="AC20" s="0">
         <v>57.9914</v>
       </c>
-      <c r="L20" s="0">
+      <c r="AD20" s="0">
         <v>130.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
+        <v>331.78999999999996</v>
+      </c>
+      <c r="B21" s="0">
+        <v>419.4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>318.9</v>
+      </c>
+      <c r="D21" s="0">
+        <v>399</v>
+      </c>
+      <c r="E21" s="0">
+        <v>359.20160000000004</v>
+      </c>
+      <c r="F21" s="0">
+        <v>478.28000000000003</v>
+      </c>
+      <c r="G21" s="0">
+        <v>177.6</v>
+      </c>
+      <c r="H21" s="0">
+        <v>379.7037</v>
+      </c>
+      <c r="I21" s="0">
+        <v>568.24</v>
+      </c>
+      <c r="J21" s="0">
+        <v>253.9</v>
+      </c>
+      <c r="K21" s="0">
+        <v>252</v>
+      </c>
+      <c r="L21" s="0">
+        <v>468.29830000000004</v>
+      </c>
+      <c r="M21" s="0">
+        <v>259</v>
+      </c>
+      <c r="N21" s="0">
+        <v>244</v>
+      </c>
+      <c r="O21" s="0">
+        <v>543.01</v>
+      </c>
+      <c r="P21" s="0">
+        <v>473.56</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>249</v>
+      </c>
+      <c r="R21" s="0">
+        <v>446.9</v>
+      </c>
+      <c r="S21" s="0">
         <v>340.6</v>
       </c>
-      <c r="B21" s="0">
+      <c r="T21" s="0">
         <v>355.82</v>
       </c>
-      <c r="C21" s="0">
+      <c r="U21" s="0">
         <v>460.63</v>
       </c>
-      <c r="D21" s="0">
+      <c r="V21" s="0">
         <v>314.5</v>
       </c>
-      <c r="E21" s="0">
+      <c r="W21" s="0">
         <v>123.23082</v>
       </c>
-      <c r="F21" s="0">
+      <c r="X21" s="0">
         <v>177.98427999999998</v>
       </c>
-      <c r="G21" s="0">
+      <c r="Y21" s="0">
         <v>427.68</v>
       </c>
-      <c r="H21" s="0">
+      <c r="Z21" s="0">
         <v>214.48489999999998</v>
       </c>
-      <c r="I21" s="0">
+      <c r="AA21" s="0">
         <v>706.4</v>
       </c>
-      <c r="J21" s="0">
+      <c r="AB21" s="0">
         <v>127.7172</v>
       </c>
-      <c r="K21" s="0">
+      <c r="AC21" s="0">
         <v>64.7162</v>
       </c>
-      <c r="L21" s="0">
+      <c r="AD21" s="0">
         <v>136.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
+        <v>354.99</v>
+      </c>
+      <c r="B22" s="0">
+        <v>390.1</v>
+      </c>
+      <c r="C22" s="0">
+        <v>344.99</v>
+      </c>
+      <c r="D22" s="0">
+        <v>374</v>
+      </c>
+      <c r="E22" s="0">
+        <v>397.0855</v>
+      </c>
+      <c r="F22" s="0">
+        <v>455.92</v>
+      </c>
+      <c r="G22" s="0">
+        <v>159.2</v>
+      </c>
+      <c r="H22" s="0">
+        <v>322.5298</v>
+      </c>
+      <c r="I22" s="0">
+        <v>586.8299999999999</v>
+      </c>
+      <c r="J22" s="0">
+        <v>232.5</v>
+      </c>
+      <c r="K22" s="0">
+        <v>227</v>
+      </c>
+      <c r="L22" s="0">
+        <v>455.6513</v>
+      </c>
+      <c r="M22" s="0">
+        <v>216</v>
+      </c>
+      <c r="N22" s="0">
+        <v>215</v>
+      </c>
+      <c r="O22" s="0">
+        <v>496.8</v>
+      </c>
+      <c r="P22" s="0">
+        <v>423.88</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>210</v>
+      </c>
+      <c r="R22" s="0">
+        <v>374.8</v>
+      </c>
+      <c r="S22" s="0">
         <v>336.4</v>
       </c>
-      <c r="B22" s="0">
+      <c r="T22" s="0">
         <v>408.25</v>
       </c>
-      <c r="C22" s="0">
+      <c r="U22" s="0">
         <v>435.66999999999996</v>
       </c>
-      <c r="D22" s="0">
+      <c r="V22" s="0">
         <v>309.9</v>
       </c>
-      <c r="E22" s="0">
+      <c r="W22" s="0">
         <v>168.30329</v>
       </c>
-      <c r="F22" s="0">
+      <c r="X22" s="0">
         <v>224.19687</v>
       </c>
-      <c r="G22" s="0">
+      <c r="Y22" s="0">
         <v>429.59000000000003</v>
       </c>
-      <c r="H22" s="0">
+      <c r="Z22" s="0">
         <v>240.4376</v>
       </c>
-      <c r="I22" s="0">
+      <c r="AA22" s="0">
         <v>712.1</v>
       </c>
-      <c r="J22" s="0">
+      <c r="AB22" s="0">
         <v>146.147</v>
       </c>
-      <c r="K22" s="0">
+      <c r="AC22" s="0">
         <v>72.59750000000001</v>
       </c>
-      <c r="L22" s="0">
+      <c r="AD22" s="0">
         <v>149.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
+        <v>373.08</v>
+      </c>
+      <c r="B23" s="0">
+        <v>362</v>
+      </c>
+      <c r="C23" s="0">
+        <v>370.91999999999996</v>
+      </c>
+      <c r="D23" s="0">
+        <v>354</v>
+      </c>
+      <c r="E23" s="0">
+        <v>425.60710000000006</v>
+      </c>
+      <c r="F23" s="0">
+        <v>436.18</v>
+      </c>
+      <c r="G23" s="0">
+        <v>135.3</v>
+      </c>
+      <c r="H23" s="0">
+        <v>266.29600000000005</v>
+      </c>
+      <c r="I23" s="0">
+        <v>589.8199999999999</v>
+      </c>
+      <c r="J23" s="0">
+        <v>198.6</v>
+      </c>
+      <c r="K23" s="0">
+        <v>193</v>
+      </c>
+      <c r="L23" s="0">
+        <v>433.4184</v>
+      </c>
+      <c r="M23" s="0">
+        <v>179</v>
+      </c>
+      <c r="N23" s="0">
+        <v>204</v>
+      </c>
+      <c r="O23" s="0">
+        <v>434.25</v>
+      </c>
+      <c r="P23" s="0">
+        <v>377.36</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>170</v>
+      </c>
+      <c r="R23" s="0">
+        <v>323.4</v>
+      </c>
+      <c r="S23" s="0">
         <v>326</v>
       </c>
-      <c r="B23" s="0">
+      <c r="T23" s="0">
         <v>474.97</v>
       </c>
-      <c r="C23" s="0">
+      <c r="U23" s="0">
         <v>402.51</v>
       </c>
-      <c r="D23" s="0">
+      <c r="V23" s="0">
         <v>304.2</v>
       </c>
-      <c r="E23" s="0">
+      <c r="W23" s="0">
         <v>203.40492</v>
       </c>
-      <c r="F23" s="0">
+      <c r="X23" s="0">
         <v>275.07664000000005</v>
       </c>
-      <c r="G23" s="0">
+      <c r="Y23" s="0">
         <v>429.38</v>
       </c>
-      <c r="H23" s="0">
+      <c r="Z23" s="0">
         <v>270.97790000000003</v>
       </c>
-      <c r="I23" s="0">
+      <c r="AA23" s="0">
         <v>693.4</v>
       </c>
-      <c r="J23" s="0">
+      <c r="AB23" s="0">
         <v>165.536</v>
       </c>
-      <c r="K23" s="0">
+      <c r="AC23" s="0">
         <v>82.8762</v>
       </c>
-      <c r="L23" s="0">
+      <c r="AD23" s="0">
         <v>171.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
+        <v>382.24</v>
+      </c>
+      <c r="B24" s="0">
+        <v>333.7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>392.79</v>
+      </c>
+      <c r="D24" s="0">
+        <v>331</v>
+      </c>
+      <c r="E24" s="0">
+        <v>432.07120000000003</v>
+      </c>
+      <c r="F24" s="0">
+        <v>409.86</v>
+      </c>
+      <c r="G24" s="0">
+        <v>122.1</v>
+      </c>
+      <c r="H24" s="0">
+        <v>210.26999999999998</v>
+      </c>
+      <c r="I24" s="0">
+        <v>572.57</v>
+      </c>
+      <c r="J24" s="0">
+        <v>161.1</v>
+      </c>
+      <c r="K24" s="0">
+        <v>155</v>
+      </c>
+      <c r="L24" s="0">
+        <v>410.122</v>
+      </c>
+      <c r="M24" s="0">
+        <v>153</v>
+      </c>
+      <c r="N24" s="0">
+        <v>206</v>
+      </c>
+      <c r="O24" s="0">
+        <v>381.51</v>
+      </c>
+      <c r="P24" s="0">
+        <v>331.68</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>148</v>
+      </c>
+      <c r="R24" s="0">
+        <v>285.7</v>
+      </c>
+      <c r="S24" s="0">
         <v>305.9</v>
       </c>
-      <c r="B24" s="0">
+      <c r="T24" s="0">
         <v>536.25</v>
       </c>
-      <c r="C24" s="0">
+      <c r="U24" s="0">
         <v>365.71000000000004</v>
       </c>
-      <c r="D24" s="0">
+      <c r="V24" s="0">
         <v>300.7</v>
       </c>
-      <c r="E24" s="0">
+      <c r="W24" s="0">
         <v>232.69066</v>
       </c>
-      <c r="F24" s="0">
+      <c r="X24" s="0">
         <v>330.1585</v>
       </c>
-      <c r="G24" s="0">
+      <c r="Y24" s="0">
         <v>435.65</v>
       </c>
-      <c r="H24" s="0">
+      <c r="Z24" s="0">
         <v>295.8666</v>
       </c>
-      <c r="I24" s="0">
+      <c r="AA24" s="0">
         <v>675.6</v>
       </c>
-      <c r="J24" s="0">
+      <c r="AB24" s="0">
         <v>185.193</v>
       </c>
-      <c r="K24" s="0">
+      <c r="AC24" s="0">
         <v>94.16029999999999</v>
       </c>
-      <c r="L24" s="0">
+      <c r="AD24" s="0">
         <v>193.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
+        <v>379.05</v>
+      </c>
+      <c r="B25" s="0">
+        <v>302.4</v>
+      </c>
+      <c r="C25" s="0">
+        <v>411.24</v>
+      </c>
+      <c r="D25" s="0">
+        <v>301</v>
+      </c>
+      <c r="E25" s="0">
+        <v>418.91400000000004</v>
+      </c>
+      <c r="F25" s="0">
+        <v>381.32</v>
+      </c>
+      <c r="G25" s="0">
+        <v>122</v>
+      </c>
+      <c r="H25" s="0">
+        <v>159.7181</v>
+      </c>
+      <c r="I25" s="0">
+        <v>537.47</v>
+      </c>
+      <c r="J25" s="0">
+        <v>132.5</v>
+      </c>
+      <c r="K25" s="0">
+        <v>117</v>
+      </c>
+      <c r="L25" s="0">
+        <v>397.6784</v>
+      </c>
+      <c r="M25" s="0">
+        <v>129</v>
+      </c>
+      <c r="N25" s="0">
+        <v>218</v>
+      </c>
+      <c r="O25" s="0">
+        <v>339.78000000000003</v>
+      </c>
+      <c r="P25" s="0">
+        <v>298.38</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>140</v>
+      </c>
+      <c r="R25" s="0">
+        <v>256.5</v>
+      </c>
+      <c r="S25" s="0">
         <v>274.9</v>
       </c>
-      <c r="B25" s="0">
+      <c r="T25" s="0">
         <v>572.12</v>
       </c>
-      <c r="C25" s="0">
+      <c r="U25" s="0">
         <v>323.7</v>
       </c>
-      <c r="D25" s="0">
+      <c r="V25" s="0">
         <v>303.7</v>
       </c>
-      <c r="E25" s="0">
+      <c r="W25" s="0">
         <v>258.6248</v>
       </c>
-      <c r="F25" s="0">
+      <c r="X25" s="0">
         <v>398.39169999999996</v>
       </c>
-      <c r="G25" s="0">
+      <c r="Y25" s="0">
         <v>453.25</v>
       </c>
-      <c r="H25" s="0">
+      <c r="Z25" s="0">
         <v>322.0589</v>
       </c>
-      <c r="I25" s="0">
+      <c r="AA25" s="0">
         <v>662.2</v>
       </c>
-      <c r="J25" s="0">
+      <c r="AB25" s="0">
         <v>201.65200000000002</v>
       </c>
-      <c r="K25" s="0">
+      <c r="AC25" s="0">
         <v>101.6385</v>
       </c>
-      <c r="L25" s="0">
+      <c r="AD25" s="0">
         <v>212.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
+        <v>353.26</v>
+      </c>
+      <c r="B26" s="0">
+        <v>265.1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>418.75</v>
+      </c>
+      <c r="D26" s="0">
+        <v>271</v>
+      </c>
+      <c r="E26" s="0">
+        <v>394.0092</v>
+      </c>
+      <c r="F26" s="0">
+        <v>350.59999999999997</v>
+      </c>
+      <c r="G26" s="0">
+        <v>144.9</v>
+      </c>
+      <c r="H26" s="0">
+        <v>116.6736</v>
+      </c>
+      <c r="I26" s="0">
+        <v>503.43</v>
+      </c>
+      <c r="J26" s="0">
+        <v>110.3</v>
+      </c>
+      <c r="K26" s="0">
+        <v>94</v>
+      </c>
+      <c r="L26" s="0">
+        <v>396.8677</v>
+      </c>
+      <c r="N26" s="0">
+        <v>229</v>
+      </c>
+      <c r="O26" s="0">
+        <v>299.22</v>
+      </c>
+      <c r="P26" s="0">
+        <v>266.03999999999996</v>
+      </c>
+      <c r="Q26" s="0">
+        <v>136</v>
+      </c>
+      <c r="R26" s="0">
+        <v>241.2</v>
+      </c>
+      <c r="S26" s="0">
         <v>233</v>
       </c>
-      <c r="B26" s="0">
+      <c r="T26" s="0">
         <v>580.3100000000001</v>
       </c>
-      <c r="C26" s="0">
+      <c r="U26" s="0">
         <v>279.09</v>
       </c>
-      <c r="D26" s="0">
+      <c r="V26" s="0">
         <v>312.9</v>
       </c>
-      <c r="E26" s="0">
+      <c r="W26" s="0">
         <v>280.7128</v>
       </c>
-      <c r="F26" s="0">
+      <c r="X26" s="0">
         <v>473.48709999999994</v>
       </c>
-      <c r="G26" s="0">
+      <c r="Y26" s="0">
         <v>477.51</v>
       </c>
-      <c r="H26" s="0">
+      <c r="Z26" s="0">
         <v>354.6689</v>
       </c>
-      <c r="I26" s="0">
+      <c r="AA26" s="0">
         <v>644</v>
       </c>
-      <c r="J26" s="0">
+      <c r="AB26" s="0">
         <v>219.041</v>
       </c>
-      <c r="K26" s="0">
+      <c r="AC26" s="0">
         <v>107.1914</v>
       </c>
-      <c r="L26" s="0">
+      <c r="AD26" s="0">
         <v>227.74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
+        <v>340.44</v>
+      </c>
+      <c r="B27" s="0">
+        <v>220.7</v>
+      </c>
+      <c r="C27" s="0">
+        <v>419.6</v>
+      </c>
+      <c r="D27" s="0">
+        <v>241</v>
+      </c>
+      <c r="E27" s="0">
+        <v>365.757</v>
+      </c>
+      <c r="F27" s="0">
+        <v>320.61</v>
+      </c>
+      <c r="G27" s="0">
+        <v>153.5</v>
+      </c>
+      <c r="H27" s="0">
+        <v>87.759</v>
+      </c>
+      <c r="I27" s="0">
+        <v>463.98</v>
+      </c>
+      <c r="J27" s="0">
+        <v>99.7</v>
+      </c>
+      <c r="K27" s="0">
+        <v>77</v>
+      </c>
+      <c r="L27" s="0">
+        <v>400.42359999999996</v>
+      </c>
+      <c r="N27" s="0">
+        <v>232</v>
+      </c>
+      <c r="O27" s="0">
+        <v>260.15000000000003</v>
+      </c>
+      <c r="P27" s="0">
+        <v>235.09</v>
+      </c>
+      <c r="R27" s="0">
+        <v>237.3</v>
+      </c>
+      <c r="S27" s="0">
         <v>183.8</v>
       </c>
-      <c r="B27" s="0">
+      <c r="T27" s="0">
         <v>568.97</v>
       </c>
-      <c r="C27" s="0">
+      <c r="U27" s="0">
         <v>231.16</v>
       </c>
-      <c r="D27" s="0">
+      <c r="V27" s="0">
         <v>322.2</v>
       </c>
-      <c r="E27" s="0">
+      <c r="W27" s="0">
         <v>297.504</v>
       </c>
-      <c r="F27" s="0">
+      <c r="X27" s="0">
         <v>541.3863</v>
       </c>
-      <c r="G27" s="0">
+      <c r="Y27" s="0">
         <v>503.28000000000003</v>
       </c>
-      <c r="H27" s="0">
+      <c r="Z27" s="0">
         <v>393.268</v>
       </c>
-      <c r="I27" s="0">
+      <c r="AA27" s="0">
         <v>633.5</v>
       </c>
-      <c r="J27" s="0">
+      <c r="AB27" s="0">
         <v>238.164</v>
       </c>
-      <c r="K27" s="0">
+      <c r="AC27" s="0">
         <v>121.42779999999999</v>
       </c>
-      <c r="L27" s="0">
+      <c r="AD27" s="0">
         <v>241.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
+        <v>324.43</v>
+      </c>
+      <c r="B28" s="0">
+        <v>181.3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>418.34</v>
+      </c>
+      <c r="D28" s="0">
+        <v>221</v>
+      </c>
+      <c r="E28" s="0">
+        <v>335.1337</v>
+      </c>
+      <c r="F28" s="0">
+        <v>286.16</v>
+      </c>
+      <c r="G28" s="0">
+        <v>152.6</v>
+      </c>
+      <c r="H28" s="0">
+        <v>73.86789999999999</v>
+      </c>
+      <c r="I28" s="0">
+        <v>419.44</v>
+      </c>
+      <c r="J28" s="0">
+        <v>96</v>
+      </c>
+      <c r="K28" s="0">
+        <v>66</v>
+      </c>
+      <c r="L28" s="0">
+        <v>404.1462</v>
+      </c>
+      <c r="N28" s="0">
+        <v>220</v>
+      </c>
+      <c r="O28" s="0">
+        <v>226.35</v>
+      </c>
+      <c r="P28" s="0">
+        <v>195.36</v>
+      </c>
+      <c r="R28" s="0">
+        <v>236.6</v>
+      </c>
+      <c r="S28" s="0">
         <v>149.5</v>
       </c>
-      <c r="B28" s="0">
+      <c r="T28" s="0">
         <v>542.12</v>
       </c>
-      <c r="C28" s="0">
+      <c r="U28" s="0">
         <v>185.9</v>
       </c>
-      <c r="D28" s="0">
+      <c r="V28" s="0">
         <v>332.5</v>
       </c>
-      <c r="E28" s="0">
+      <c r="W28" s="0">
         <v>308.9449</v>
       </c>
-      <c r="F28" s="0">
+      <c r="X28" s="0">
         <v>591.9589000000001</v>
       </c>
-      <c r="G28" s="0">
+      <c r="Y28" s="0">
         <v>521.57</v>
       </c>
-      <c r="H28" s="0">
+      <c r="Z28" s="0">
         <v>433.87690000000003</v>
       </c>
-      <c r="I28" s="0">
+      <c r="AA28" s="0">
         <v>626.5</v>
       </c>
-      <c r="J28" s="0">
+      <c r="AB28" s="0">
         <v>258.272</v>
       </c>
-      <c r="K28" s="0">
+      <c r="AC28" s="0">
         <v>149.319</v>
       </c>
-      <c r="L28" s="0">
+      <c r="AD28" s="0">
         <v>250.86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
+        <v>301.26</v>
+      </c>
+      <c r="B29" s="0">
+        <v>146.3</v>
+      </c>
+      <c r="C29" s="0">
+        <v>417.9</v>
+      </c>
+      <c r="D29" s="0">
+        <v>209</v>
+      </c>
+      <c r="E29" s="0">
+        <v>303.4792</v>
+      </c>
+      <c r="F29" s="0">
+        <v>252.23</v>
+      </c>
+      <c r="G29" s="0">
+        <v>126.7</v>
+      </c>
+      <c r="H29" s="0">
+        <v>69</v>
+      </c>
+      <c r="I29" s="0">
+        <v>372.55</v>
+      </c>
+      <c r="K29" s="0">
+        <v>59</v>
+      </c>
+      <c r="L29" s="0">
+        <v>402.85009999999994</v>
+      </c>
+      <c r="N29" s="0">
+        <v>205</v>
+      </c>
+      <c r="O29" s="0">
+        <v>200.84</v>
+      </c>
+      <c r="P29" s="0">
+        <v>159.83</v>
+      </c>
+      <c r="R29" s="0">
+        <v>233</v>
+      </c>
+      <c r="S29" s="0">
         <v>130.2</v>
       </c>
-      <c r="B29" s="0">
+      <c r="T29" s="0">
         <v>502.37</v>
       </c>
-      <c r="C29" s="0">
+      <c r="U29" s="0">
         <v>156.45</v>
       </c>
-      <c r="D29" s="0">
+      <c r="V29" s="0">
         <v>338.6</v>
       </c>
-      <c r="E29" s="0">
+      <c r="W29" s="0">
         <v>316.9901</v>
       </c>
-      <c r="F29" s="0">
+      <c r="X29" s="0">
         <v>621.6459</v>
       </c>
-      <c r="G29" s="0">
+      <c r="Y29" s="0">
         <v>529.72</v>
       </c>
-      <c r="H29" s="0">
+      <c r="Z29" s="0">
         <v>468.992</v>
       </c>
-      <c r="I29" s="0">
+      <c r="AA29" s="0">
         <v>608.2</v>
       </c>
-      <c r="J29" s="0">
+      <c r="AB29" s="0">
         <v>298.32399999999996</v>
       </c>
-      <c r="K29" s="0">
+      <c r="AC29" s="0">
         <v>187.869</v>
       </c>
-      <c r="L29" s="0">
+      <c r="AD29" s="0">
         <v>255.60000000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
+        <v>272.79</v>
+      </c>
+      <c r="B30" s="0">
+        <v>122.7</v>
+      </c>
+      <c r="C30" s="0">
+        <v>415.8</v>
+      </c>
+      <c r="D30" s="0">
+        <v>197</v>
+      </c>
+      <c r="E30" s="0">
+        <v>275.0695</v>
+      </c>
+      <c r="F30" s="0">
+        <v>224.72</v>
+      </c>
+      <c r="G30" s="0">
+        <v>119</v>
+      </c>
+      <c r="I30" s="0">
+        <v>327.83</v>
+      </c>
+      <c r="K30" s="0">
+        <v>57</v>
+      </c>
+      <c r="L30" s="0">
+        <v>392.2815</v>
+      </c>
+      <c r="N30" s="0">
+        <v>185</v>
+      </c>
+      <c r="O30" s="0">
+        <v>190</v>
+      </c>
+      <c r="P30" s="0">
+        <v>133.43</v>
+      </c>
+      <c r="S30" s="0">
         <v>122</v>
       </c>
-      <c r="B30" s="0">
+      <c r="T30" s="0">
         <v>459.06</v>
       </c>
-      <c r="C30" s="0">
+      <c r="U30" s="0">
         <v>139.53</v>
       </c>
-      <c r="D30" s="0">
+      <c r="V30" s="0">
         <v>340.2</v>
       </c>
-      <c r="E30" s="0">
+      <c r="W30" s="0">
         <v>321.8449</v>
       </c>
-      <c r="F30" s="0">
+      <c r="X30" s="0">
         <v>631.7149</v>
       </c>
-      <c r="G30" s="0">
+      <c r="Y30" s="0">
         <v>533.23</v>
       </c>
-      <c r="H30" s="0">
+      <c r="Z30" s="0">
         <v>491.32879999999994</v>
       </c>
-      <c r="I30" s="0">
+      <c r="AA30" s="0">
         <v>586.1</v>
       </c>
-      <c r="J30" s="0">
+      <c r="AB30" s="0">
         <v>363.093</v>
       </c>
-      <c r="K30" s="0">
+      <c r="AC30" s="0">
         <v>223.574</v>
       </c>
-      <c r="L30" s="0">
+      <c r="AD30" s="0">
         <v>258.40999999999997</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="0">
+        <v>235.51000000000002</v>
+      </c>
       <c r="B31" s="0">
+        <v>106.5</v>
+      </c>
+      <c r="C31" s="0">
+        <v>405.12</v>
+      </c>
+      <c r="D31" s="0">
+        <v>181</v>
+      </c>
+      <c r="E31" s="0">
+        <v>252.89970000000002</v>
+      </c>
+      <c r="F31" s="0">
+        <v>209.64000000000001</v>
+      </c>
+      <c r="G31" s="0">
+        <v>114.2</v>
+      </c>
+      <c r="I31" s="0">
+        <v>287.53000000000003</v>
+      </c>
+      <c r="L31" s="0">
+        <v>376.4602</v>
+      </c>
+      <c r="N31" s="0">
+        <v>163</v>
+      </c>
+      <c r="P31" s="0">
+        <v>117</v>
+      </c>
+      <c r="T31" s="0">
         <v>419.22</v>
       </c>
-      <c r="C31" s="0">
+      <c r="U31" s="0">
         <v>129.5</v>
       </c>
-      <c r="D31" s="0">
+      <c r="V31" s="0">
         <v>334.5</v>
       </c>
-      <c r="E31" s="0">
+      <c r="W31" s="0">
         <v>321.9789</v>
       </c>
-      <c r="F31" s="0">
+      <c r="X31" s="0">
         <v>622.6583999999999</v>
       </c>
-      <c r="G31" s="0">
+      <c r="Y31" s="0">
         <v>525.4599999999999</v>
       </c>
-      <c r="H31" s="0">
+      <c r="Z31" s="0">
         <v>498.6876</v>
       </c>
-      <c r="I31" s="0">
+      <c r="AA31" s="0">
         <v>530.7</v>
       </c>
-      <c r="J31" s="0">
+      <c r="AB31" s="0">
         <v>434.992</v>
       </c>
-      <c r="K31" s="0">
+      <c r="AC31" s="0">
         <v>255.221</v>
       </c>
-      <c r="L31" s="0">
+      <c r="AD31" s="0">
         <v>263.34999999999997</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="0">
+        <v>194.91</v>
+      </c>
       <c r="B32" s="0">
+        <v>95.5</v>
+      </c>
+      <c r="C32" s="0">
+        <v>389.22</v>
+      </c>
+      <c r="D32" s="0">
+        <v>164</v>
+      </c>
+      <c r="E32" s="0">
+        <v>236.8135</v>
+      </c>
+      <c r="F32" s="0">
+        <v>205.78</v>
+      </c>
+      <c r="G32" s="0">
+        <v>113.9</v>
+      </c>
+      <c r="I32" s="0">
+        <v>254.08</v>
+      </c>
+      <c r="L32" s="0">
+        <v>359.4646</v>
+      </c>
+      <c r="T32" s="0">
         <v>380.56</v>
       </c>
-      <c r="C32" s="0">
+      <c r="U32" s="0">
         <v>118.25999999999999</v>
       </c>
-      <c r="D32" s="0">
+      <c r="V32" s="0">
         <v>324</v>
       </c>
-      <c r="E32" s="0">
+      <c r="W32" s="0">
         <v>317.1894</v>
       </c>
-      <c r="F32" s="0">
+      <c r="X32" s="0">
         <v>599.1174</v>
       </c>
-      <c r="G32" s="0">
+      <c r="Y32" s="0">
         <v>508.55</v>
       </c>
-      <c r="H32" s="0">
+      <c r="Z32" s="0">
         <v>489.6922</v>
       </c>
-      <c r="I32" s="0">
+      <c r="AA32" s="0">
         <v>454.3</v>
       </c>
-      <c r="J32" s="0">
+      <c r="AB32" s="0">
         <v>503.462</v>
       </c>
-      <c r="K32" s="0">
+      <c r="AC32" s="0">
         <v>285.786</v>
       </c>
-      <c r="L32" s="0">
+      <c r="AD32" s="0">
         <v>274.38</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" s="0">
+        <v>155.03</v>
+      </c>
       <c r="B33" s="0">
+        <v>89.1</v>
+      </c>
+      <c r="C33" s="0">
+        <v>369.59000000000003</v>
+      </c>
+      <c r="D33" s="0">
+        <v>142</v>
+      </c>
+      <c r="E33" s="0">
+        <v>226.69150000000002</v>
+      </c>
+      <c r="F33" s="0">
+        <v>203</v>
+      </c>
+      <c r="G33" s="0">
+        <v>135.3</v>
+      </c>
+      <c r="I33" s="0">
+        <v>226.92</v>
+      </c>
+      <c r="L33" s="0">
+        <v>343.525</v>
+      </c>
+      <c r="T33" s="0">
         <v>339.32000000000005</v>
       </c>
-      <c r="C33" s="0">
+      <c r="U33" s="0">
         <v>104.14399999999999</v>
       </c>
-      <c r="D33" s="0">
+      <c r="V33" s="0">
         <v>312.3</v>
       </c>
-      <c r="E33" s="0">
+      <c r="W33" s="0">
         <v>308.3554</v>
       </c>
-      <c r="F33" s="0">
+      <c r="X33" s="0">
         <v>569.0242000000001</v>
       </c>
-      <c r="G33" s="0">
+      <c r="Y33" s="0">
         <v>481.09000000000003</v>
       </c>
-      <c r="H33" s="0">
+      <c r="Z33" s="0">
         <v>467.4134</v>
       </c>
-      <c r="I33" s="0">
+      <c r="AA33" s="0">
         <v>387.7</v>
       </c>
-      <c r="J33" s="0">
+      <c r="AB33" s="0">
         <v>560.599</v>
       </c>
-      <c r="K33" s="0">
+      <c r="AC33" s="0">
         <v>313.49199999999996</v>
       </c>
-      <c r="L33" s="0">
+      <c r="AD33" s="0">
         <v>292.09</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="0">
+        <v>123.36</v>
+      </c>
       <c r="B34" s="0">
+        <v>84</v>
+      </c>
+      <c r="C34" s="0">
+        <v>347.76</v>
+      </c>
+      <c r="D34" s="0">
+        <v>123</v>
+      </c>
+      <c r="E34" s="0">
+        <v>216.0326</v>
+      </c>
+      <c r="G34" s="0">
+        <v>145.5</v>
+      </c>
+      <c r="I34" s="0">
+        <v>208.41</v>
+      </c>
+      <c r="L34" s="0">
+        <v>325.2371</v>
+      </c>
+      <c r="T34" s="0">
         <v>291.17</v>
       </c>
-      <c r="C34" s="0">
+      <c r="U34" s="0">
         <v>90.08200000000001</v>
       </c>
-      <c r="D34" s="0">
+      <c r="V34" s="0">
         <v>294.3</v>
       </c>
-      <c r="E34" s="0">
+      <c r="W34" s="0">
         <v>297.252</v>
       </c>
-      <c r="F34" s="0">
+      <c r="X34" s="0">
         <v>536.6344</v>
       </c>
-      <c r="G34" s="0">
+      <c r="Y34" s="0">
         <v>447.96999999999997</v>
       </c>
-      <c r="H34" s="0">
+      <c r="Z34" s="0">
         <v>436.2848</v>
       </c>
-      <c r="I34" s="0">
+      <c r="AA34" s="0">
         <v>336.6</v>
       </c>
-      <c r="J34" s="0">
+      <c r="AB34" s="0">
         <v>601.192</v>
       </c>
-      <c r="K34" s="0">
+      <c r="AC34" s="0">
         <v>338.634</v>
       </c>
-      <c r="L34" s="0">
+      <c r="AD34" s="0">
         <v>316.19</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="0">
+      <c r="A35" s="0">
+        <v>100.17</v>
+      </c>
+      <c r="C35" s="0">
+        <v>324.23</v>
+      </c>
+      <c r="D35" s="0">
+        <v>107</v>
+      </c>
+      <c r="E35" s="0">
+        <v>202.7057</v>
+      </c>
+      <c r="G35" s="0">
+        <v>150.1</v>
+      </c>
+      <c r="I35" s="0">
+        <v>196.97</v>
+      </c>
+      <c r="L35" s="0">
+        <v>303.4511</v>
+      </c>
+      <c r="T35" s="0">
         <v>238.69</v>
       </c>
-      <c r="C35" s="0">
+      <c r="U35" s="0">
         <v>76.4</v>
       </c>
-      <c r="D35" s="0">
+      <c r="V35" s="0">
         <v>268.9</v>
       </c>
-      <c r="E35" s="0">
+      <c r="W35" s="0">
         <v>284.4299</v>
       </c>
-      <c r="F35" s="0">
+      <c r="X35" s="0">
         <v>504.3923</v>
       </c>
-      <c r="G35" s="0">
+      <c r="Y35" s="0">
         <v>411.53999999999996</v>
       </c>
-      <c r="H35" s="0">
+      <c r="Z35" s="0">
         <v>401.2782</v>
       </c>
-      <c r="I35" s="0">
+      <c r="AA35" s="0">
         <v>292.2</v>
       </c>
-      <c r="J35" s="0">
+      <c r="AB35" s="0">
         <v>624.126</v>
       </c>
-      <c r="K35" s="0">
+      <c r="AC35" s="0">
         <v>359.851</v>
       </c>
-      <c r="L35" s="0">
+      <c r="AD35" s="0">
         <v>348.65</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="0">
+      <c r="A36" s="0">
+        <v>90.07</v>
+      </c>
+      <c r="C36" s="0">
+        <v>297.27000000000004</v>
+      </c>
+      <c r="D36" s="0">
+        <v>94</v>
+      </c>
+      <c r="E36" s="0">
+        <v>185.15019999999998</v>
+      </c>
+      <c r="G36" s="0">
+        <v>150.8</v>
+      </c>
+      <c r="I36" s="0">
+        <v>190</v>
+      </c>
+      <c r="L36" s="0">
+        <v>279.9051</v>
+      </c>
+      <c r="T36" s="0">
         <v>185.79000000000002</v>
       </c>
-      <c r="D36" s="0">
+      <c r="V36" s="0">
         <v>234.6</v>
       </c>
-      <c r="E36" s="0">
+      <c r="W36" s="0">
         <v>270.6855</v>
       </c>
-      <c r="F36" s="0">
+      <c r="X36" s="0">
         <v>471.96169999999995</v>
       </c>
-      <c r="G36" s="0">
+      <c r="Y36" s="0">
         <v>379.78000000000003</v>
       </c>
-      <c r="H36" s="0">
+      <c r="Z36" s="0">
         <v>366.7271</v>
       </c>
-      <c r="I36" s="0">
+      <c r="AA36" s="0">
         <v>250.5</v>
       </c>
-      <c r="J36" s="0">
+      <c r="AB36" s="0">
         <v>623.27</v>
       </c>
-      <c r="K36" s="0">
+      <c r="AC36" s="0">
         <v>377.427</v>
       </c>
-      <c r="L36" s="0">
+      <c r="AD36" s="0">
         <v>379.82</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="0">
+      <c r="A37" s="0">
+        <v>86</v>
+      </c>
+      <c r="C37" s="0">
+        <v>267.47</v>
+      </c>
+      <c r="E37" s="0">
+        <v>161.8318</v>
+      </c>
+      <c r="G37" s="0">
+        <v>118</v>
+      </c>
+      <c r="L37" s="0">
+        <v>255.87570000000002</v>
+      </c>
+      <c r="T37" s="0">
         <v>141.626</v>
       </c>
-      <c r="D37" s="0">
+      <c r="V37" s="0">
         <v>202.2</v>
       </c>
-      <c r="E37" s="0">
+      <c r="W37" s="0">
         <v>257.08230000000003</v>
       </c>
-      <c r="F37" s="0">
+      <c r="X37" s="0">
         <v>440.4873</v>
       </c>
-      <c r="G37" s="0">
+      <c r="Y37" s="0">
         <v>348.88</v>
       </c>
-      <c r="H37" s="0">
+      <c r="Z37" s="0">
         <v>332.5085</v>
       </c>
-      <c r="I37" s="0">
+      <c r="AA37" s="0">
         <v>213.4</v>
       </c>
-      <c r="J37" s="0">
+      <c r="AB37" s="0">
         <v>593.615</v>
       </c>
-      <c r="K37" s="0">
+      <c r="AC37" s="0">
         <v>391.736</v>
       </c>
-      <c r="L37" s="0">
+      <c r="AD37" s="0">
         <v>400.61</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="0">
+      <c r="C38" s="0">
+        <v>238.54</v>
+      </c>
+      <c r="E38" s="0">
+        <v>139.7319</v>
+      </c>
+      <c r="L38" s="0">
+        <v>232.1489</v>
+      </c>
+      <c r="T38" s="0">
         <v>113.352</v>
       </c>
-      <c r="D38" s="0">
+      <c r="V38" s="0">
         <v>155.5</v>
       </c>
-      <c r="E38" s="0">
+      <c r="W38" s="0">
         <v>240.7575</v>
       </c>
-      <c r="F38" s="0">
+      <c r="X38" s="0">
         <v>409.3129</v>
       </c>
-      <c r="G38" s="0">
+      <c r="Y38" s="0">
         <v>320.96</v>
       </c>
-      <c r="H38" s="0">
+      <c r="Z38" s="0">
         <v>302.2452</v>
       </c>
-      <c r="I38" s="0">
+      <c r="AA38" s="0">
         <v>180.8</v>
       </c>
-      <c r="J38" s="0">
+      <c r="AB38" s="0">
         <v>554.3240000000001</v>
       </c>
-      <c r="K38" s="0">
+      <c r="AC38" s="0">
         <v>399.176</v>
       </c>
-      <c r="L38" s="0">
+      <c r="AD38" s="0">
         <v>406.98</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="0">
+      <c r="C39" s="0">
+        <v>208.86</v>
+      </c>
+      <c r="E39" s="0">
+        <v>124.5985</v>
+      </c>
+      <c r="L39" s="0">
+        <v>210</v>
+      </c>
+      <c r="T39" s="0">
         <v>97.064</v>
       </c>
-      <c r="D39" s="0">
+      <c r="V39" s="0">
         <v>106.12</v>
       </c>
-      <c r="E39" s="0">
+      <c r="W39" s="0">
         <v>217.74609999999998</v>
       </c>
-      <c r="F39" s="0">
+      <c r="X39" s="0">
         <v>379.84360000000004</v>
       </c>
-      <c r="G39" s="0">
+      <c r="Y39" s="0">
         <v>292.29</v>
       </c>
-      <c r="H39" s="0">
+      <c r="Z39" s="0">
         <v>268.83006</v>
       </c>
-      <c r="I39" s="0">
+      <c r="AA39" s="0">
         <v>155.6</v>
       </c>
-      <c r="J39" s="0">
+      <c r="AB39" s="0">
         <v>524.344</v>
       </c>
-      <c r="K39" s="0">
+      <c r="AC39" s="0">
         <v>398.276</v>
       </c>
-      <c r="L39" s="0">
+      <c r="AD39" s="0">
         <v>405.78000000000003</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="0">
+      <c r="C40" s="0">
+        <v>181.91</v>
+      </c>
+      <c r="E40" s="0">
+        <v>115</v>
+      </c>
+      <c r="T40" s="0">
         <v>87.966</v>
       </c>
-      <c r="D40" s="0">
+      <c r="V40" s="0">
         <v>82.17</v>
       </c>
-      <c r="E40" s="0">
+      <c r="W40" s="0">
         <v>189.0593</v>
       </c>
-      <c r="F40" s="0">
+      <c r="X40" s="0">
         <v>351.4474</v>
       </c>
-      <c r="G40" s="0">
+      <c r="Y40" s="0">
         <v>256.19</v>
       </c>
-      <c r="H40" s="0">
+      <c r="Z40" s="0">
         <v>222.17858</v>
       </c>
-      <c r="I40" s="0">
+      <c r="AA40" s="0">
         <v>136.7</v>
       </c>
-      <c r="J40" s="0">
+      <c r="AB40" s="0">
         <v>481.777</v>
       </c>
-      <c r="K40" s="0">
+      <c r="AC40" s="0">
         <v>391.92</v>
       </c>
-      <c r="L40" s="0">
+      <c r="AD40" s="0">
         <v>395.45</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="0">
+      <c r="C41" s="0">
+        <v>155.68</v>
+      </c>
+      <c r="T41" s="0">
         <v>81.28800000000001</v>
       </c>
-      <c r="D41" s="0">
+      <c r="V41" s="0">
         <v>69.39999999999999</v>
       </c>
-      <c r="E41" s="0">
+      <c r="W41" s="0">
         <v>162.66320000000002</v>
       </c>
-      <c r="F41" s="0">
+      <c r="X41" s="0">
         <v>325.0751</v>
       </c>
-      <c r="G41" s="0">
+      <c r="Y41" s="0">
         <v>211.21</v>
       </c>
-      <c r="H41" s="0">
+      <c r="Z41" s="0">
         <v>167.40465</v>
       </c>
-      <c r="I41" s="0">
+      <c r="AA41" s="0">
         <v>124.6</v>
       </c>
-      <c r="J41" s="0">
+      <c r="AB41" s="0">
         <v>436.026</v>
       </c>
-      <c r="K41" s="0">
+      <c r="AC41" s="0">
         <v>383.43899999999996</v>
       </c>
-      <c r="L41" s="0">
+      <c r="AD41" s="0">
         <v>380.75</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="0">
+      <c r="C42" s="0">
+        <v>131.63</v>
+      </c>
+      <c r="T42" s="0">
         <v>75.2</v>
       </c>
-      <c r="D42" s="0">
+      <c r="V42" s="0">
         <v>60.28</v>
       </c>
-      <c r="E42" s="0">
+      <c r="W42" s="0">
         <v>145.77980000000002</v>
       </c>
-      <c r="F42" s="0">
+      <c r="X42" s="0">
         <v>298.13640000000004</v>
       </c>
-      <c r="G42" s="0">
+      <c r="Y42" s="0">
         <v>159.84</v>
       </c>
-      <c r="H42" s="0">
+      <c r="Z42" s="0">
         <v>124.71346</v>
       </c>
-      <c r="I42" s="0">
+      <c r="AA42" s="0">
         <v>118.1</v>
       </c>
-      <c r="J42" s="0">
+      <c r="AB42" s="0">
         <v>398.485</v>
       </c>
-      <c r="K42" s="0">
+      <c r="AC42" s="0">
         <v>370.833</v>
       </c>
-      <c r="L42" s="0">
+      <c r="AD42" s="0">
         <v>361.39</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="0">
+      <c r="C43" s="0">
+        <v>108.31</v>
+      </c>
+      <c r="V43" s="0">
         <v>54.050000000000004</v>
       </c>
-      <c r="E43" s="0">
+      <c r="W43" s="0">
         <v>138</v>
       </c>
-      <c r="F43" s="0">
+      <c r="X43" s="0">
         <v>267.1882</v>
       </c>
-      <c r="G43" s="0">
+      <c r="Y43" s="0">
         <v>115.78200000000001</v>
       </c>
-      <c r="H43" s="0">
+      <c r="Z43" s="0">
         <v>99.65216000000001</v>
       </c>
-      <c r="I43" s="0">
+      <c r="AA43" s="0">
         <v>113</v>
       </c>
-      <c r="J43" s="0">
+      <c r="AB43" s="0">
         <v>378.51599999999996</v>
       </c>
-      <c r="K43" s="0">
+      <c r="AC43" s="0">
         <v>354.588</v>
       </c>
-      <c r="L43" s="0">
+      <c r="AD43" s="0">
         <v>341.5</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="0">
+      <c r="C44" s="0">
+        <v>93</v>
+      </c>
+      <c r="V44" s="0">
         <v>50.76</v>
       </c>
-      <c r="F44" s="0">
+      <c r="X44" s="0">
         <v>235.22289999999998</v>
       </c>
-      <c r="G44" s="0">
+      <c r="Y44" s="0">
         <v>85.05600000000001</v>
       </c>
-      <c r="H44" s="0">
+      <c r="Z44" s="0">
         <v>84.39434</v>
       </c>
-      <c r="J44" s="0">
+      <c r="AB44" s="0">
         <v>363.83</v>
       </c>
-      <c r="K44" s="0">
+      <c r="AC44" s="0">
         <v>336.36300000000006</v>
       </c>
-      <c r="L44" s="0">
+      <c r="AD44" s="0">
         <v>315.22</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="0">
+      <c r="V45" s="0">
         <v>46.85</v>
       </c>
-      <c r="F45" s="0">
+      <c r="X45" s="0">
         <v>203.15540000000001</v>
       </c>
-      <c r="G45" s="0">
+      <c r="Y45" s="0">
         <v>67.2</v>
       </c>
-      <c r="H45" s="0">
+      <c r="Z45" s="0">
         <v>73.5</v>
       </c>
-      <c r="J45" s="0">
+      <c r="AB45" s="0">
         <v>349.555</v>
       </c>
-      <c r="K45" s="0">
+      <c r="AC45" s="0">
         <v>315.67600000000004</v>
       </c>
-      <c r="L45" s="0">
+      <c r="AD45" s="0">
         <v>280.46</v>
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="0">
+      <c r="V46" s="0">
         <v>44.22</v>
       </c>
-      <c r="F46" s="0">
+      <c r="X46" s="0">
         <v>170</v>
       </c>
-      <c r="J46" s="0">
+      <c r="AB46" s="0">
         <v>335.6</v>
       </c>
-      <c r="K46" s="0">
+      <c r="AC46" s="0">
         <v>290.162</v>
       </c>
-      <c r="L46" s="0">
+      <c r="AD46" s="0">
         <v>238.81</v>
       </c>
     </row>
     <row r="47">
-      <c r="D47" s="0">
+      <c r="V47" s="0">
         <v>43.5</v>
       </c>
-      <c r="J47" s="0">
+      <c r="AB47" s="0">
         <v>318.815</v>
       </c>
-      <c r="K47" s="0">
+      <c r="AC47" s="0">
         <v>257.472</v>
       </c>
-      <c r="L47" s="0">
+      <c r="AD47" s="0">
         <v>196.42</v>
       </c>
     </row>
     <row r="48">
-      <c r="J48" s="0">
+      <c r="AB48" s="0">
         <v>300.592</v>
       </c>
-      <c r="K48" s="0">
+      <c r="AC48" s="0">
         <v>222.182</v>
       </c>
-      <c r="L48" s="0">
+      <c r="AD48" s="0">
         <v>161.23999999999998</v>
       </c>
     </row>
     <row r="49">
-      <c r="J49" s="0">
+      <c r="AB49" s="0">
         <v>280.50399999999996</v>
       </c>
-      <c r="K49" s="0">
+      <c r="AC49" s="0">
         <v>188.25300000000001</v>
       </c>
-      <c r="L49" s="0">
+      <c r="AD49" s="0">
         <v>140.13</v>
       </c>
     </row>
     <row r="50">
-      <c r="J50" s="0">
+      <c r="AB50" s="0">
         <v>257</v>
       </c>
-      <c r="K50" s="0">
+      <c r="AC50" s="0">
         <v>160.91400000000002</v>
       </c>
-      <c r="L50" s="0">
+      <c r="AD50" s="0">
         <v>128.75</v>
       </c>
     </row>
     <row r="51">
-      <c r="K51" s="0">
+      <c r="AC51" s="0">
         <v>141.294</v>
       </c>
-      <c r="L51" s="0">
+      <c r="AD51" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="52">
-      <c r="K52" s="0">
+      <c r="AC52" s="0">
         <v>124</v>
       </c>
     </row>
